--- a/Audit/Mock_Report.xlsx
+++ b/Audit/Mock_Report.xlsx
@@ -474,11 +474,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="957023018"/>
-        <c:axId val="1812522334"/>
+        <c:axId val="580715133"/>
+        <c:axId val="210470392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="957023018"/>
+        <c:axId val="580715133"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,10 +530,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812522334"/>
+        <c:crossAx val="210470392"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1812522334"/>
+        <c:axId val="210470392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -608,7 +608,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="957023018"/>
+        <c:crossAx val="580715133"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -701,11 +701,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="279224923"/>
-        <c:axId val="1056401538"/>
+        <c:axId val="808253446"/>
+        <c:axId val="185065755"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="279224923"/>
+        <c:axId val="808253446"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -757,10 +757,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056401538"/>
+        <c:crossAx val="185065755"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1056401538"/>
+        <c:axId val="185065755"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +835,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279224923"/>
+        <c:crossAx val="808253446"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -928,11 +928,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1883144905"/>
-        <c:axId val="1862896418"/>
+        <c:axId val="1876286657"/>
+        <c:axId val="1628462288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1883144905"/>
+        <c:axId val="1876286657"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,10 +984,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1862896418"/>
+        <c:crossAx val="1628462288"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1862896418"/>
+        <c:axId val="1628462288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1062,7 +1062,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1883144905"/>
+        <c:crossAx val="1876286657"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1155,11 +1155,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="951760798"/>
-        <c:axId val="1568878682"/>
+        <c:axId val="1927979757"/>
+        <c:axId val="2101515416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="951760798"/>
+        <c:axId val="1927979757"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1211,10 +1211,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1568878682"/>
+        <c:crossAx val="2101515416"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1568878682"/>
+        <c:axId val="2101515416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,7 +1289,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="951760798"/>
+        <c:crossAx val="1927979757"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1382,11 +1382,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1278544707"/>
-        <c:axId val="558669152"/>
+        <c:axId val="1855835803"/>
+        <c:axId val="1855239717"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1278544707"/>
+        <c:axId val="1855835803"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1438,10 +1438,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558669152"/>
+        <c:crossAx val="1855239717"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="558669152"/>
+        <c:axId val="1855239717"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,7 +1516,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1278544707"/>
+        <c:crossAx val="1855835803"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
